--- a/data/outputs/数学期刊(下)_altmetric/78Archiv der Mathematik.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/78Archiv der Mathematik.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE127"/>
+  <dimension ref="A1:CF127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1529,6 +1540,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1774,6 +1788,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2023,6 +2040,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2268,6 +2288,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2521,6 +2544,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2770,6 +2796,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3021,6 +3050,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3256,6 +3288,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3501,6 +3536,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3750,6 +3788,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3999,6 +4040,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4252,6 +4296,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4509,6 +4556,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4760,6 +4810,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5019,6 +5072,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5266,6 +5322,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5509,6 +5568,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5756,6 +5818,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5995,6 +6060,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6248,6 +6316,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6491,6 +6562,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6734,6 +6808,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6991,6 +7068,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7236,6 +7316,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7486,6 +7569,9 @@
       </c>
       <c r="CE28" t="n">
         <v>0</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="29">
@@ -7724,6 +7810,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7977,6 +8066,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8234,6 +8326,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8483,6 +8578,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8738,6 +8836,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8977,6 +9078,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9238,6 +9342,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9487,6 +9594,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9734,6 +9844,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9973,6 +10086,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10222,6 +10338,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10467,6 +10586,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10714,6 +10836,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10957,6 +11082,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11206,6 +11334,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11463,6 +11594,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11704,6 +11838,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11953,6 +12090,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12206,6 +12346,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12455,6 +12598,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12704,6 +12850,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12947,6 +13096,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13190,6 +13342,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13444,6 +13599,9 @@
       </c>
       <c r="CE52" t="n">
         <v>0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -13686,6 +13844,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13935,6 +14096,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14190,6 +14354,9 @@
         <v>0</v>
       </c>
       <c r="CE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14433,6 +14600,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14676,6 +14846,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14921,6 +15094,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15170,6 +15346,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15419,6 +15598,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15666,6 +15848,9 @@
         <v>0</v>
       </c>
       <c r="CE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15905,6 +16090,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16146,6 +16334,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16389,6 +16580,9 @@
         <v>0</v>
       </c>
       <c r="CE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16620,6 +16814,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16867,6 +17064,9 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17110,6 +17310,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17353,6 +17556,9 @@
         <v>0</v>
       </c>
       <c r="CE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17594,6 +17800,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17839,6 +18048,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18098,6 +18310,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18349,6 +18564,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18596,6 +18814,9 @@
         <v>0</v>
       </c>
       <c r="CE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18835,6 +19056,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19076,6 +19300,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19323,6 +19550,9 @@
         <v>0</v>
       </c>
       <c r="CE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19566,6 +19796,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19815,6 +20048,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20064,6 +20300,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20313,6 +20552,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20554,6 +20796,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20807,6 +21052,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21060,6 +21308,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21309,6 +21560,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21566,6 +21820,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21813,6 +22070,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22070,6 +22330,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22319,6 +22582,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22570,6 +22836,9 @@
         <v>0</v>
       </c>
       <c r="CE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22809,6 +23078,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23046,6 +23318,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23303,6 +23578,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23546,6 +23824,9 @@
         <v>0</v>
       </c>
       <c r="CE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23789,6 +24070,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24042,6 +24326,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24291,6 +24578,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24544,6 +24834,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24791,6 +25084,9 @@
         <v>0</v>
       </c>
       <c r="CE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25030,6 +25326,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25281,6 +25580,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25536,6 +25838,9 @@
         <v>0</v>
       </c>
       <c r="CE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25779,6 +26084,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26028,6 +26336,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26275,6 +26586,9 @@
         <v>0</v>
       </c>
       <c r="CE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26516,6 +26830,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26759,6 +27076,9 @@
         <v>0</v>
       </c>
       <c r="CE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27002,6 +27322,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27249,6 +27572,9 @@
         <v>0</v>
       </c>
       <c r="CE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27492,6 +27818,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27741,6 +28070,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27988,6 +28320,9 @@
         <v>0</v>
       </c>
       <c r="CE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28227,6 +28562,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28476,6 +28814,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28729,6 +29070,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -28978,6 +29322,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29231,6 +29578,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29476,6 +29826,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29723,6 +30076,9 @@
         <v>0</v>
       </c>
       <c r="CE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29962,6 +30318,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30215,6 +30574,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30464,6 +30826,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30703,6 +31068,9 @@
         <v>0</v>
       </c>
       <c r="CE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30942,6 +31310,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31191,6 +31562,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31448,6 +31822,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31698,6 +32075,9 @@
       </c>
       <c r="CE126" t="n">
         <v>0</v>
+      </c>
+      <c r="CF126" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="127">
@@ -31928,6 +32308,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
